--- a/natmiOut/OldD2/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H2">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I2">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J2">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N2">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O2">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P2">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q2">
-        <v>46.07650720613695</v>
+        <v>48.9974816423125</v>
       </c>
       <c r="R2">
-        <v>46.07650720613695</v>
+        <v>195.98992656925</v>
       </c>
       <c r="S2">
-        <v>0.001700060458112996</v>
+        <v>0.001699300876208599</v>
       </c>
       <c r="T2">
-        <v>0.001700060458112996</v>
+        <v>0.001153092560196649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H3">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I3">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J3">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N3">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P3">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q3">
-        <v>469.0592414618902</v>
+        <v>495.7488178938038</v>
       </c>
       <c r="R3">
-        <v>469.0592414618902</v>
+        <v>2974.492907362823</v>
       </c>
       <c r="S3">
-        <v>0.01730663015220098</v>
+        <v>0.0171932591714842</v>
       </c>
       <c r="T3">
-        <v>0.01730663015220098</v>
+        <v>0.01750021392362675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H4">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I4">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J4">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N4">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O4">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P4">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q4">
-        <v>131.0218056016533</v>
+        <v>174.107118880288</v>
       </c>
       <c r="R4">
-        <v>131.0218056016533</v>
+        <v>1044.642713281728</v>
       </c>
       <c r="S4">
-        <v>0.004834242097766283</v>
+        <v>0.006038277269579781</v>
       </c>
       <c r="T4">
-        <v>0.004834242097766283</v>
+        <v>0.006146079861523831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H5">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I5">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J5">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N5">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O5">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P5">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q5">
-        <v>90.01848066402492</v>
+        <v>91.21263516287817</v>
       </c>
       <c r="R5">
-        <v>90.01848066402492</v>
+        <v>547.275810977269</v>
       </c>
       <c r="S5">
-        <v>0.003321364156177512</v>
+        <v>0.003163381170997237</v>
       </c>
       <c r="T5">
-        <v>0.003321364156177512</v>
+        <v>0.003219857658299093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H6">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I6">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J6">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N6">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O6">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P6">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q6">
-        <v>46.92764288831813</v>
+        <v>59.11953517251284</v>
       </c>
       <c r="R6">
-        <v>46.92764288831813</v>
+        <v>354.717211035077</v>
       </c>
       <c r="S6">
-        <v>0.001731464360133863</v>
+        <v>0.002050347784261239</v>
       </c>
       <c r="T6">
-        <v>0.001731464360133863</v>
+        <v>0.002086953060180521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.872645420324</v>
+        <v>101.8923455</v>
       </c>
       <c r="H7">
-        <v>101.872645420324</v>
+        <v>203.784691</v>
       </c>
       <c r="I7">
-        <v>0.1968217557390962</v>
+        <v>0.1893849302940161</v>
       </c>
       <c r="J7">
-        <v>0.1968217557390962</v>
+        <v>0.138161740144498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N7">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O7">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P7">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q7">
-        <v>4551.329579159371</v>
+        <v>4591.521679354494</v>
       </c>
       <c r="R7">
-        <v>4551.329579159371</v>
+        <v>18366.08671741798</v>
       </c>
       <c r="S7">
-        <v>0.1679279945147046</v>
+        <v>0.159240364021485</v>
       </c>
       <c r="T7">
-        <v>0.1679279945147046</v>
+        <v>0.1080555430806711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H8">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J8">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N8">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O8">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P8">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q8">
-        <v>29.04597176195722</v>
+        <v>34.76908181041667</v>
       </c>
       <c r="R8">
-        <v>29.04597176195722</v>
+        <v>208.6144908625</v>
       </c>
       <c r="S8">
-        <v>0.00107169382086742</v>
+        <v>0.001205840161678583</v>
       </c>
       <c r="T8">
-        <v>0.00107169382086742</v>
+        <v>0.00122736827128595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H9">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J9">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N9">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P9">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q9">
-        <v>295.6882434954294</v>
+        <v>351.7881047968389</v>
       </c>
       <c r="R9">
-        <v>295.6882434954294</v>
+        <v>3166.09294317155</v>
       </c>
       <c r="S9">
-        <v>0.01090985235592063</v>
+        <v>0.01220050122340976</v>
       </c>
       <c r="T9">
-        <v>0.01090985235592063</v>
+        <v>0.01862747887898348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H10">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J10">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N10">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O10">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P10">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q10">
-        <v>82.5942740989576</v>
+        <v>123.5480775178667</v>
       </c>
       <c r="R10">
-        <v>82.5942740989576</v>
+        <v>1111.9326976608</v>
       </c>
       <c r="S10">
-        <v>0.003047437142620096</v>
+        <v>0.00428481932832028</v>
       </c>
       <c r="T10">
-        <v>0.003047437142620096</v>
+        <v>0.006541975618624596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H11">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J11">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N11">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O11">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P11">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q11">
-        <v>56.74636394907359</v>
+        <v>64.72535868829443</v>
       </c>
       <c r="R11">
-        <v>56.74636394907359</v>
+        <v>582.52822819465</v>
       </c>
       <c r="S11">
-        <v>0.002093740505544649</v>
+        <v>0.002244765548051207</v>
       </c>
       <c r="T11">
-        <v>0.002093740505544649</v>
+        <v>0.003427262705761813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H12">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J12">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N12">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O12">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P12">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q12">
-        <v>29.58251553424506</v>
+        <v>41.95178784927222</v>
       </c>
       <c r="R12">
-        <v>29.58251553424506</v>
+        <v>377.56609064345</v>
       </c>
       <c r="S12">
-        <v>0.001091490391975394</v>
+        <v>0.001454946406658238</v>
       </c>
       <c r="T12">
-        <v>0.001091490391975394</v>
+        <v>0.002221382791067403</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>64.219060028936</v>
+        <v>72.30378333333333</v>
       </c>
       <c r="H13">
-        <v>64.219060028936</v>
+        <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1240736224592821</v>
+        <v>0.1343893586842298</v>
       </c>
       <c r="J13">
-        <v>0.1240736224592821</v>
+        <v>0.147061339230297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N13">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O13">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P13">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q13">
-        <v>2869.093133387858</v>
+        <v>3258.187718078883</v>
       </c>
       <c r="R13">
-        <v>2869.093133387858</v>
+        <v>19549.1263084733</v>
       </c>
       <c r="S13">
-        <v>0.105859408242354</v>
+        <v>0.1129984860161118</v>
       </c>
       <c r="T13">
-        <v>0.105859408242354</v>
+        <v>0.1150158709645738</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H14">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I14">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J14">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N14">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O14">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P14">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q14">
-        <v>65.09847404104069</v>
+        <v>73.12848216333335</v>
       </c>
       <c r="R14">
-        <v>65.09847404104069</v>
+        <v>438.77089298</v>
       </c>
       <c r="S14">
-        <v>0.002401903883589689</v>
+        <v>0.00253619756874697</v>
       </c>
       <c r="T14">
-        <v>0.002401903883589689</v>
+        <v>0.002581476819663539</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H15">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I15">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J15">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N15">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P15">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q15">
-        <v>662.703028191992</v>
+        <v>739.9024882848978</v>
       </c>
       <c r="R15">
-        <v>662.703028191992</v>
+        <v>6659.12239456408</v>
       </c>
       <c r="S15">
-        <v>0.02445140228751738</v>
+        <v>0.02566084836420807</v>
       </c>
       <c r="T15">
-        <v>0.02445140228751738</v>
+        <v>0.03917846506206852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H16">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I16">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J16">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N16">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O16">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P16">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q16">
-        <v>185.1121130473511</v>
+        <v>259.8539539336534</v>
       </c>
       <c r="R16">
-        <v>185.1121130473511</v>
+        <v>2338.68558540288</v>
       </c>
       <c r="S16">
-        <v>0.00682998349466101</v>
+        <v>0.009012096883452919</v>
       </c>
       <c r="T16">
-        <v>0.00682998349466101</v>
+        <v>0.01375948752250979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H17">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I17">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J17">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N17">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O17">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P17">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q17">
-        <v>127.1812053918107</v>
+        <v>136.1343754822489</v>
       </c>
       <c r="R17">
-        <v>127.1812053918107</v>
+        <v>1225.20937934024</v>
       </c>
       <c r="S17">
-        <v>0.004692537507985564</v>
+        <v>0.00472132966399899</v>
       </c>
       <c r="T17">
-        <v>0.004692537507985564</v>
+        <v>0.007208430783819907</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H18">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I18">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J18">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N18">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O18">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P18">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q18">
-        <v>66.30098780502877</v>
+        <v>88.23559351332446</v>
       </c>
       <c r="R18">
-        <v>66.30098780502877</v>
+        <v>794.1203416199201</v>
       </c>
       <c r="S18">
-        <v>0.002446272396405705</v>
+        <v>0.003060133222040868</v>
       </c>
       <c r="T18">
-        <v>0.002446272396405705</v>
+        <v>0.00467214960407266</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>143.929177047166</v>
+        <v>152.0737866666667</v>
       </c>
       <c r="H19">
-        <v>143.929177047166</v>
+        <v>456.22136</v>
       </c>
       <c r="I19">
-        <v>0.278076545589095</v>
+        <v>0.2826560066517826</v>
       </c>
       <c r="J19">
-        <v>0.278076545589095</v>
+        <v>0.3093084994725608</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N19">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O19">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P19">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q19">
-        <v>6430.274958464402</v>
+        <v>6852.821818117147</v>
       </c>
       <c r="R19">
-        <v>6430.274958464402</v>
+        <v>41116.93090870287</v>
       </c>
       <c r="S19">
-        <v>0.2372544460189357</v>
+        <v>0.2376654009493348</v>
       </c>
       <c r="T19">
-        <v>0.2372544460189357</v>
+        <v>0.2419084896804264</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H20">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I20">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J20">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N20">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O20">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P20">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q20">
-        <v>38.09871704827066</v>
+        <v>41.1549809505</v>
       </c>
       <c r="R20">
-        <v>38.09871704827066</v>
+        <v>246.929885703</v>
       </c>
       <c r="S20">
-        <v>0.001405708164224168</v>
+        <v>0.001427312034117682</v>
       </c>
       <c r="T20">
-        <v>0.001405708164224168</v>
+        <v>0.001452794126098783</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H21">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I21">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J21">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N21">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P21">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q21">
-        <v>387.84526872629</v>
+        <v>416.399628568532</v>
       </c>
       <c r="R21">
-        <v>387.84526872629</v>
+        <v>3747.596657116788</v>
       </c>
       <c r="S21">
-        <v>0.01431012125719361</v>
+        <v>0.01444131881807561</v>
       </c>
       <c r="T21">
-        <v>0.01431012125719361</v>
+        <v>0.02204871392924538</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H22">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I22">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J22">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N22">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O22">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P22">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q22">
-        <v>108.3363953009455</v>
+        <v>146.239662135552</v>
       </c>
       <c r="R22">
-        <v>108.3363953009455</v>
+        <v>1316.156959219968</v>
       </c>
       <c r="S22">
-        <v>0.003997230540970892</v>
+        <v>0.005071795073418481</v>
       </c>
       <c r="T22">
-        <v>0.003997230540970892</v>
+        <v>0.007743514293278493</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H23">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I23">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J23">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N23">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O23">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P23">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q23">
-        <v>74.43247832546476</v>
+        <v>76.613208204796</v>
       </c>
       <c r="R23">
-        <v>74.43247832546476</v>
+        <v>689.518873843164</v>
       </c>
       <c r="S23">
-        <v>0.002746295691085313</v>
+        <v>0.002657052719198024</v>
       </c>
       <c r="T23">
-        <v>0.002746295691085313</v>
+        <v>0.004056734432536232</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H24">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I24">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J24">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N24">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O24">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P24">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q24">
-        <v>38.80248518286548</v>
+        <v>49.65690607506799</v>
       </c>
       <c r="R24">
-        <v>38.80248518286548</v>
+        <v>446.912154675612</v>
       </c>
       <c r="S24">
-        <v>0.001431674723971241</v>
+        <v>0.001722170633567865</v>
       </c>
       <c r="T24">
-        <v>0.001431674723971241</v>
+        <v>0.00262937534412422</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>84.23418631676989</v>
+        <v>85.58353199999999</v>
       </c>
       <c r="H25">
-        <v>84.23418631676989</v>
+        <v>256.750596</v>
       </c>
       <c r="I25">
-        <v>0.1627435939816402</v>
+        <v>0.1590721183480431</v>
       </c>
       <c r="J25">
-        <v>0.1627435939816402</v>
+        <v>0.1740715112230731</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N25">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O25">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P25">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q25">
-        <v>3763.302132561005</v>
+        <v>3856.606113495827</v>
       </c>
       <c r="R25">
-        <v>3763.302132561005</v>
+        <v>23139.63668097496</v>
       </c>
       <c r="S25">
-        <v>0.1388525636041949</v>
+        <v>0.1337524690696654</v>
       </c>
       <c r="T25">
-        <v>0.1388525636041949</v>
+        <v>0.13614037909779</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H26">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I26">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J26">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N26">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O26">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P26">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q26">
-        <v>39.31255937997972</v>
+        <v>42.78657091108334</v>
       </c>
       <c r="R26">
-        <v>39.31255937997972</v>
+        <v>256.7194254665</v>
       </c>
       <c r="S26">
-        <v>0.001450494661197346</v>
+        <v>0.00148389784540228</v>
       </c>
       <c r="T26">
-        <v>0.001450494661197346</v>
+        <v>0.001510390175378656</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H27">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I27">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J27">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N27">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O27">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P27">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q27">
-        <v>400.2021941507489</v>
+        <v>432.9077993384371</v>
       </c>
       <c r="R27">
-        <v>400.2021941507489</v>
+        <v>3896.170194045934</v>
       </c>
       <c r="S27">
-        <v>0.01476604818333821</v>
+        <v>0.01501384516256585</v>
       </c>
       <c r="T27">
-        <v>0.01476604818333821</v>
+        <v>0.02292283558985311</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H28">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I28">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J28">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N28">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O28">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P28">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q28">
-        <v>111.7880417832782</v>
+        <v>152.0373361732694</v>
       </c>
       <c r="R28">
-        <v>111.7880417832782</v>
+        <v>1368.336025559424</v>
       </c>
       <c r="S28">
-        <v>0.004124584111278346</v>
+        <v>0.005272866480397837</v>
       </c>
       <c r="T28">
-        <v>0.004124584111278346</v>
+        <v>0.008050506056820866</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H29">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I29">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J29">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N29">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O29">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P29">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q29">
-        <v>76.80393070090811</v>
+        <v>79.65054022313356</v>
       </c>
       <c r="R29">
-        <v>76.80393070090811</v>
+        <v>716.8548620082021</v>
       </c>
       <c r="S29">
-        <v>0.002833793912114801</v>
+        <v>0.002762391622078295</v>
       </c>
       <c r="T29">
-        <v>0.002833793912114801</v>
+        <v>0.004217563742136447</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H30">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I30">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J30">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N30">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O30">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P30">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q30">
-        <v>40.03874988518604</v>
+        <v>51.62555501025178</v>
       </c>
       <c r="R30">
-        <v>40.03874988518604</v>
+        <v>464.629995092266</v>
       </c>
       <c r="S30">
-        <v>0.001477288527265257</v>
+        <v>0.001790446119335199</v>
       </c>
       <c r="T30">
-        <v>0.001477288527265257</v>
+        <v>0.002733616976971491</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>86.9179255355687</v>
+        <v>88.97649266666667</v>
       </c>
       <c r="H31">
-        <v>86.9179255355687</v>
+        <v>266.929478</v>
       </c>
       <c r="I31">
-        <v>0.1679286783859023</v>
+        <v>0.1653785353432923</v>
       </c>
       <c r="J31">
-        <v>0.1679286783859023</v>
+        <v>0.180972579418846</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N31">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O31">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P31">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q31">
-        <v>3883.202638127264</v>
+        <v>4009.501332285321</v>
       </c>
       <c r="R31">
-        <v>3883.202638127264</v>
+        <v>24057.00799371192</v>
       </c>
       <c r="S31">
-        <v>0.1432764689907084</v>
+        <v>0.1390550881135128</v>
       </c>
       <c r="T31">
-        <v>0.1432764689907084</v>
+        <v>0.1415376668776854</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H32">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I32">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J32">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N32">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O32">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P32">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q32">
-        <v>16.4704846305415</v>
+        <v>17.8824123519375</v>
       </c>
       <c r="R32">
-        <v>16.4704846305415</v>
+        <v>71.52964940775</v>
       </c>
       <c r="S32">
-        <v>0.000607702739295569</v>
+        <v>0.0006201869557338475</v>
       </c>
       <c r="T32">
-        <v>0.000607702739295569</v>
+        <v>0.0004208395197107645</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H33">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I33">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J33">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N33">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O33">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P33">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q33">
-        <v>167.6696758447554</v>
+        <v>180.9314374416115</v>
       </c>
       <c r="R33">
-        <v>167.6696758447554</v>
+        <v>1085.588624649669</v>
       </c>
       <c r="S33">
-        <v>0.006186419136612132</v>
+        <v>0.006274954137902116</v>
       </c>
       <c r="T33">
-        <v>0.006186419136612132</v>
+        <v>0.006386982170103256</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H34">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I34">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J34">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N34">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O34">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P34">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q34">
-        <v>46.83498742153797</v>
+        <v>63.543169748064</v>
       </c>
       <c r="R34">
-        <v>46.83498742153797</v>
+        <v>381.259018488384</v>
       </c>
       <c r="S34">
-        <v>0.001728045700499002</v>
+        <v>0.002203765589795335</v>
       </c>
       <c r="T34">
-        <v>0.001728045700499002</v>
+        <v>0.002243109864993479</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H35">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I35">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J35">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N35">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O35">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P35">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q35">
-        <v>32.17795992236245</v>
+        <v>33.2895058892345</v>
       </c>
       <c r="R35">
-        <v>32.17795992236245</v>
+        <v>199.737035335407</v>
       </c>
       <c r="S35">
-        <v>0.001187253127543206</v>
+        <v>0.001154526408909894</v>
       </c>
       <c r="T35">
-        <v>0.001187253127543206</v>
+        <v>0.001175138403654714</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H36">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I36">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J36">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N36">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O36">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P36">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q36">
-        <v>16.77473115489618</v>
+        <v>21.5766172173385</v>
       </c>
       <c r="R36">
-        <v>16.77473115489618</v>
+        <v>129.459703304031</v>
       </c>
       <c r="S36">
-        <v>0.0006189283620030301</v>
+        <v>0.0007483071234293421</v>
       </c>
       <c r="T36">
-        <v>0.0006189283620030301</v>
+        <v>0.0007616668026680355</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>36.4153435754473</v>
+        <v>37.1872365</v>
       </c>
       <c r="H37">
-        <v>36.4153435754473</v>
+        <v>74.37447299999999</v>
       </c>
       <c r="I37">
-        <v>0.07035580384498431</v>
+        <v>0.06911905067863601</v>
       </c>
       <c r="J37">
-        <v>0.07035580384498431</v>
+        <v>0.05042433051072507</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N37">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O37">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P37">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q37">
-        <v>1626.91593672033</v>
+        <v>1675.749063849283</v>
       </c>
       <c r="R37">
-        <v>1626.91593672033</v>
+        <v>6702.996255397133</v>
       </c>
       <c r="S37">
-        <v>0.06002745477903138</v>
+        <v>0.05811731046286547</v>
       </c>
       <c r="T37">
-        <v>0.06002745477903138</v>
+        <v>0.03943659374959482</v>
       </c>
     </row>
   </sheetData>
